--- a/PDFより特定の文字をキーに必要な情報を抽出してExcelに反映させる/OUTPUT/目標達成率.xlsx
+++ b/PDFより特定の文字をキーに必要な情報を抽出してExcelに反映させる/OUTPUT/目標達成率.xlsx
@@ -43,7 +43,16 @@
     <t xml:space="preserve">粗利予算比 </t>
   </si>
   <si>
-    <t>全社</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>全社</t>
+    </r>
+    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>第１営業部</t>
@@ -994,7 +1003,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
